--- a/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -680,13 +680,13 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>2.25</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
         <v>15</v>
@@ -695,16 +695,16 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -716,22 +716,22 @@
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -790,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P3" t="n">
         <v>1.22</v>
@@ -802,16 +802,16 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
@@ -832,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -850,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="n">
         <v>67</v>
@@ -891,91 +891,91 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
         <v>2.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T4" t="n">
         <v>7</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6</v>
-      </c>
       <c r="U4" t="n">
+        <v>11</v>
+      </c>
+      <c r="V4" t="n">
         <v>9.5</v>
       </c>
-      <c r="V4" t="n">
-        <v>10</v>
-      </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1016,10 +1016,10 @@
         <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1162,7 +1162,7 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
@@ -1174,19 +1174,19 @@
         <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1207,19 +1207,19 @@
         <v>101</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1.14</v>
@@ -1278,73 +1278,73 @@
         <v>2.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="n">
         <v>101</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1394,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>1.67</v>
@@ -1415,7 +1415,7 @@
         <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T8" t="n">
         <v>4.75</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1510,22 +1510,22 @@
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.62</v>
@@ -1537,7 +1537,7 @@
         <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1638,28 +1638,28 @@
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
         <v>8.5</v>
@@ -1674,7 +1674,7 @@
         <v>29</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1686,16 +1686,16 @@
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -1769,7 +1769,7 @@
         <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1888,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
         <v>2.3</v>
@@ -2010,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O13" t="n">
         <v>3.4</v>
@@ -2144,7 +2144,7 @@
         <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>2.1</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>1.22</v>
@@ -2260,13 +2260,13 @@
         <v>2.05</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
         <v>2.2</v>
@@ -2275,16 +2275,16 @@
         <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>23</v>
@@ -2305,19 +2305,19 @@
         <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2355,94 +2355,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>13</v>
+      </c>
+      <c r="U16" t="n">
         <v>21</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>19</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
+        <v>13</v>
+      </c>
+      <c r="W16" t="n">
+        <v>41</v>
+      </c>
+      <c r="X16" t="n">
         <v>29</v>
-      </c>
-      <c r="V16" t="n">
-        <v>15</v>
-      </c>
-      <c r="W16" t="n">
-        <v>51</v>
-      </c>
-      <c r="X16" t="n">
-        <v>34</v>
       </c>
       <c r="Y16" t="n">
         <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>8.5</v>
       </c>
       <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
         <v>13</v>
       </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2498,10 +2498,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O17" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>2.2</v>
@@ -2519,25 +2519,25 @@
         <v>11</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
         <v>11</v>
       </c>
       <c r="W17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y17" t="n">
         <v>29</v>
-      </c>
-      <c r="X17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2549,16 +2549,16 @@
         <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2620,46 +2620,46 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" t="n">
         <v>21</v>
       </c>
-      <c r="X18" t="n">
-        <v>19</v>
-      </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2668,22 +2668,22 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2742,10 +2742,10 @@
         <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2757,22 +2757,22 @@
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W19" t="n">
+        <v>41</v>
+      </c>
+      <c r="X19" t="n">
         <v>34</v>
-      </c>
-      <c r="X19" t="n">
-        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2796,10 +2796,10 @@
         <v>6.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -2858,16 +2858,16 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2876,7 +2876,7 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3025,13 +3025,13 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
         <v>351</v>
@@ -3090,7 +3090,7 @@
         <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
         <v>3.6</v>
@@ -3114,10 +3114,10 @@
         <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
         <v>1.8</v>
@@ -3141,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
         <v>9.5</v>
@@ -3159,13 +3159,13 @@
         <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3251,13 +3251,13 @@
         <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3278,13 +3278,13 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3352,10 +3352,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3373,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="U24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
@@ -3388,7 +3388,7 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3400,7 +3400,7 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE24" t="n">
         <v>11</v>
@@ -3415,7 +3415,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3492,19 +3492,19 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
+        <v>41</v>
+      </c>
+      <c r="X25" t="n">
         <v>34</v>
-      </c>
-      <c r="X25" t="n">
-        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3513,7 +3513,7 @@
         <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>19</v>
@@ -3525,16 +3525,16 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -3575,31 +3575,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
         <v>5.25</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -3653,7 +3653,7 @@
         <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -3718,10 +3718,10 @@
         <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3748,7 +3748,7 @@
         <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
@@ -3757,7 +3757,7 @@
         <v>8.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -3769,13 +3769,13 @@
         <v>301</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3870,7 +3870,7 @@
         <v>29</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>29</v>
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
@@ -3962,10 +3962,10 @@
         <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P29" t="n">
         <v>1.29</v>
@@ -4013,7 +4013,7 @@
         <v>126</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -4063,46 +4063,46 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U30" t="n">
         <v>15</v>
@@ -4114,34 +4114,34 @@
         <v>29</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>13</v>
@@ -4441,7 +4441,7 @@
         <v>1.08</v>
       </c>
       <c r="K33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4551,82 +4551,82 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="K34" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.4</v>
       </c>
-      <c r="M34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.57</v>
-      </c>
       <c r="P34" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U34" t="n">
         <v>11</v>
       </c>
       <c r="V34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AA34" t="n">
         <v>6</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
         <v>12</v>
@@ -4795,49 +4795,49 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S36" t="n">
         <v>1.95</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V36" t="n">
         <v>15</v>
@@ -4852,22 +4852,22 @@
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF36" t="n">
         <v>8</v>
@@ -4876,13 +4876,13 @@
         <v>8.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -4917,94 +4917,94 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N37" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>8.5</v>
       </c>
       <c r="AF37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG37" t="n">
         <v>15</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13</v>
       </c>
       <c r="AH37" t="n">
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
@@ -5048,10 +5048,10 @@
         <v>6.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -5063,13 +5063,13 @@
         <v>2.05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P38" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
         <v>2.05</v>
@@ -5087,7 +5087,7 @@
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -5096,19 +5096,19 @@
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
         <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
         <v>67</v>
       </c>
       <c r="AD38" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -5120,7 +5120,7 @@
         <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="n">
         <v>51</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -5182,13 +5182,13 @@
         <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
         <v>2.75</v>
@@ -5200,7 +5200,7 @@
         <v>2.05</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U39" t="n">
         <v>15</v>
@@ -5209,19 +5209,19 @@
         <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
         <v>13</v>
@@ -5233,22 +5233,22 @@
         <v>201</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -5304,7 +5304,7 @@
         <v>4.33</v>
       </c>
       <c r="N40" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O40" t="n">
         <v>2.15</v>
@@ -5433,13 +5433,13 @@
         <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V41" t="n">
         <v>9.75</v>
@@ -5448,10 +5448,10 @@
         <v>32</v>
       </c>
       <c r="X41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
@@ -5460,7 +5460,7 @@
         <v>6.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC41" t="n">
         <v>45</v>
@@ -5469,22 +5469,22 @@
         <v>250</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG41" t="n">
         <v>9.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>1.03</v>
@@ -5540,10 +5540,10 @@
         <v>4.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P42" t="n">
         <v>1.3</v>
@@ -5552,25 +5552,25 @@
         <v>3.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>21</v>
@@ -5579,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB42" t="n">
         <v>13</v>
@@ -5588,22 +5588,22 @@
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
         <v>34</v>
@@ -5641,13 +5641,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J43" t="n">
         <v>1.04</v>
@@ -5668,25 +5668,25 @@
         <v>2.08</v>
       </c>
       <c r="P43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
         <v>2.2</v>
       </c>
       <c r="T43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U43" t="n">
         <v>13</v>
       </c>
       <c r="V43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W43" t="n">
         <v>23</v>
@@ -5698,13 +5698,13 @@
         <v>23</v>
       </c>
       <c r="Z43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB43" t="n">
         <v>12</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>41</v>
@@ -5719,10 +5719,10 @@
         <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -5763,31 +5763,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="H44" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I44" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
         <v>1.01</v>
       </c>
       <c r="K44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L44" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O44" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P44" t="n">
         <v>1.22</v>
@@ -5796,13 +5796,13 @@
         <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U44" t="n">
         <v>7</v>
@@ -5811,46 +5811,46 @@
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X44" t="n">
         <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
@@ -5894,10 +5894,10 @@
         <v>2.15</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L45" t="n">
         <v>1.2</v>
@@ -5906,10 +5906,10 @@
         <v>4.33</v>
       </c>
       <c r="N45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P45" t="n">
         <v>1.33</v>
@@ -5918,7 +5918,7 @@
         <v>3.25</v>
       </c>
       <c r="R45" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S45" t="n">
         <v>2.25</v>
@@ -6007,19 +6007,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.03</v>
       </c>
       <c r="K46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L46" t="n">
         <v>1.17</v>
@@ -6040,7 +6040,7 @@
         <v>3.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
         <v>2.2</v>
@@ -6049,7 +6049,7 @@
         <v>9.5</v>
       </c>
       <c r="U46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V46" t="n">
         <v>8.5</v>
@@ -6076,7 +6076,7 @@
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE46" t="n">
         <v>19</v>
@@ -6091,10 +6091,10 @@
         <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -6129,13 +6129,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J47" t="n">
         <v>1.08</v>
@@ -6165,7 +6165,7 @@
         <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
         <v>5.5</v>
@@ -6177,22 +6177,22 @@
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="n">
         <v>7.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>81</v>
@@ -6201,10 +6201,10 @@
         <v>101</v>
       </c>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG47" t="n">
         <v>19</v>
@@ -6266,16 +6266,16 @@
         <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O48" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
@@ -6284,10 +6284,10 @@
         <v>2.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S48" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T48" t="n">
         <v>6.5</v>
@@ -6373,85 +6373,85 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
         <v>4.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M49" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="P49" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W49" t="n">
         <v>13</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE49" t="n">
         <v>11</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH49" t="n">
         <v>51</v>
@@ -6460,7 +6460,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -6495,79 +6495,79 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="H50" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
         <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M50" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="N50" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P50" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R50" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="S50" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="U50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
         <v>7</v>
       </c>
       <c r="X50" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF50" t="n">
         <v>51</v>
@@ -6579,10 +6579,10 @@
         <v>151</v>
       </c>
       <c r="AI50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -6617,13 +6617,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
@@ -6644,31 +6644,31 @@
         <v>1.57</v>
       </c>
       <c r="P51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
         <v>2.1</v>
       </c>
       <c r="S51" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V51" t="n">
         <v>9</v>
       </c>
       <c r="W51" t="n">
+        <v>15</v>
+      </c>
+      <c r="X51" t="n">
         <v>17</v>
-      </c>
-      <c r="X51" t="n">
-        <v>19</v>
       </c>
       <c r="Y51" t="n">
         <v>34</v>
@@ -6677,34 +6677,34 @@
         <v>7.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="n">
         <v>501</v>
       </c>
       <c r="AE51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG51" t="n">
         <v>15</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="n">
         <v>41</v>
       </c>
       <c r="AJ51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6754,16 +6754,16 @@
         <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O52" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
         <v>1.3</v>
@@ -6772,7 +6772,7 @@
         <v>3.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S52" t="n">
         <v>2.25</v>
@@ -6781,13 +6781,13 @@
         <v>9.5</v>
       </c>
       <c r="U52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V52" t="n">
         <v>8.5</v>
       </c>
       <c r="W52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X52" t="n">
         <v>13</v>
@@ -6799,7 +6799,7 @@
         <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
         <v>12</v>
@@ -6814,7 +6814,7 @@
         <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
         <v>13</v>
@@ -6861,31 +6861,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N53" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P53" t="n">
         <v>1.5</v>
@@ -6894,31 +6894,31 @@
         <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T53" t="n">
         <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y53" t="n">
         <v>34</v>
       </c>
       <c r="Z53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA53" t="n">
         <v>7</v>
@@ -6933,19 +6933,19 @@
         <v>351</v>
       </c>
       <c r="AE53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
         <v>41</v>
       </c>
       <c r="AI53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -6986,76 +6986,76 @@
         <v>1.25</v>
       </c>
       <c r="H54" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K54" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L54" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="O54" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="P54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S54" t="n">
         <v>2</v>
       </c>
-      <c r="S54" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T54" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="U54" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="V54" t="n">
         <v>9.5</v>
       </c>
       <c r="W54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AE54" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF54" t="n">
         <v>51</v>
@@ -7064,10 +7064,10 @@
         <v>26</v>
       </c>
       <c r="AH54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ54" t="n">
         <v>51</v>
@@ -7105,70 +7105,70 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I55" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="J55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="P55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R55" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U55" t="n">
         <v>41</v>
       </c>
       <c r="V55" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W55" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="X55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA55" t="n">
         <v>11</v>
       </c>
-      <c r="AA55" t="n">
-        <v>9</v>
-      </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
         <v>81</v>
@@ -7177,16 +7177,16 @@
         <v>501</v>
       </c>
       <c r="AE55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF55" t="n">
         <v>6</v>
       </c>
       <c r="AG55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH55" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI55" t="n">
         <v>12</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J56" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N56" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
         <v>2.2</v>
@@ -7275,16 +7275,16 @@
         <v>13</v>
       </c>
       <c r="W56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X56" t="n">
         <v>34</v>
       </c>
       <c r="Y56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA56" t="n">
         <v>6</v>
@@ -7293,7 +7293,7 @@
         <v>19</v>
       </c>
       <c r="AC56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
         <v>101</v>
@@ -7302,13 +7302,13 @@
         <v>6</v>
       </c>
       <c r="AF56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG56" t="n">
         <v>10</v>
       </c>
-      <c r="AG56" t="n">
-        <v>11</v>
-      </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
         <v>23</v>
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H57" t="n">
         <v>2.9</v>
       </c>
       <c r="I57" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7373,7 +7373,7 @@
         <v>2.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P57" t="n">
         <v>1.5</v>
@@ -7424,7 +7424,7 @@
         <v>10</v>
       </c>
       <c r="AF57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -7477,13 +7477,13 @@
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="J58" t="n">
         <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L58" t="n">
         <v>1.28</v>
@@ -7492,16 +7492,16 @@
         <v>3.35</v>
       </c>
       <c r="N58" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O58" t="n">
         <v>1.88</v>
       </c>
       <c r="P58" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R58" t="n">
         <v>1.78</v>
@@ -7510,43 +7510,43 @@
         <v>1.93</v>
       </c>
       <c r="T58" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U58" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="V58" t="n">
         <v>8</v>
       </c>
       <c r="W58" t="n">
+        <v>14</v>
+      </c>
+      <c r="X58" t="n">
         <v>13</v>
       </c>
-      <c r="X58" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Y58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z58" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA58" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB58" t="n">
         <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD58" t="n">
         <v>500</v>
       </c>
       <c r="AE58" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG58" t="n">
         <v>14.5</v>
@@ -7558,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -7593,13 +7593,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
         <v>1.1</v>
@@ -7608,16 +7608,16 @@
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N59" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P59" t="n">
         <v>1.57</v>
@@ -7632,16 +7632,16 @@
         <v>1.67</v>
       </c>
       <c r="T59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X59" t="n">
         <v>23</v>
@@ -7656,7 +7656,7 @@
         <v>6</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
         <v>67</v>
@@ -7668,16 +7668,16 @@
         <v>7.5</v>
       </c>
       <c r="AF59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG59" t="n">
         <v>13</v>
       </c>
-      <c r="AG59" t="n">
-        <v>12</v>
-      </c>
       <c r="AH59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ59" t="n">
         <v>41</v>
@@ -7715,19 +7715,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7736,10 +7736,10 @@
         <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O60" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7748,13 +7748,13 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U60" t="n">
         <v>11</v>
@@ -7769,10 +7769,10 @@
         <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
@@ -7784,10 +7784,10 @@
         <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF60" t="n">
         <v>15</v>
@@ -7799,7 +7799,7 @@
         <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7837,49 +7837,49 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O61" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T61" t="n">
+        <v>10</v>
+      </c>
+      <c r="U61" t="n">
         <v>9</v>
-      </c>
-      <c r="U61" t="n">
-        <v>8.5</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
@@ -7888,16 +7888,16 @@
         <v>12</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
         <v>21</v>
       </c>
       <c r="Z61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB61" t="n">
         <v>15</v>
@@ -7909,13 +7909,13 @@
         <v>151</v>
       </c>
       <c r="AE61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG61" t="n">
         <v>19</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>17</v>
       </c>
       <c r="AH61" t="n">
         <v>51</v>
@@ -7959,82 +7959,82 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I62" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J62" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P62" t="n">
         <v>1.33</v>
       </c>
-      <c r="M62" t="n">
+      <c r="Q62" t="n">
         <v>3.25</v>
       </c>
-      <c r="N62" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R62" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S62" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U62" t="n">
         <v>34</v>
       </c>
       <c r="V62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X62" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC62" t="n">
         <v>51</v>
       </c>
-      <c r="Y62" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>81</v>
-      </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>301</v>
       </c>
       <c r="AE62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG62" t="n">
         <v>8.5</v>
@@ -8043,10 +8043,10 @@
         <v>10</v>
       </c>
       <c r="AI62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ62" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
@@ -8081,13 +8081,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H63" t="n">
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J63" t="n">
         <v>1.05</v>
@@ -8102,10 +8102,10 @@
         <v>3.75</v>
       </c>
       <c r="N63" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -8114,22 +8114,22 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V63" t="n">
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
@@ -8138,7 +8138,7 @@
         <v>26</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
         <v>6.5</v>
@@ -8162,7 +8162,7 @@
         <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI63" t="n">
         <v>26</v>
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H64" t="n">
         <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J64" t="n">
         <v>1.08</v>
@@ -8221,7 +8221,7 @@
         <v>1.38</v>
       </c>
       <c r="M64" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N64" t="n">
         <v>2.12</v>
@@ -8242,7 +8242,7 @@
         <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U64" t="n">
         <v>14</v>
@@ -8254,7 +8254,7 @@
         <v>35</v>
       </c>
       <c r="X64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
@@ -8278,16 +8278,16 @@
         <v>6.9</v>
       </c>
       <c r="AF64" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG64" t="n">
         <v>9.25</v>
       </c>
       <c r="AH64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>35</v>
@@ -8443,13 +8443,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -8466,10 +8466,10 @@
         <v>1.47</v>
       </c>
       <c r="P66" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
         <v>2.15</v>
@@ -8481,22 +8481,22 @@
         <v>5.2</v>
       </c>
       <c r="U66" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V66" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W66" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X66" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA66" t="n">
         <v>6.6</v>
@@ -8511,22 +8511,22 @@
         <v>101</v>
       </c>
       <c r="AE66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG66" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ66"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -784,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.44</v>
@@ -802,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>9</v>
@@ -832,22 +832,22 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
         <v>151</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -930,16 +930,16 @@
         <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
+        <v>11</v>
+      </c>
+      <c r="V4" t="n">
         <v>10</v>
       </c>
-      <c r="V4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1656,61 +1656,61 @@
         <v>2.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
         <v>29</v>
       </c>
-      <c r="X10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1745,49 +1745,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
@@ -1802,13 +1802,13 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>81</v>
@@ -1823,13 +1823,13 @@
         <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -1888,19 +1888,19 @@
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
         <v>2.5</v>
@@ -1989,55 +1989,55 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="H13" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O13" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
@@ -2046,37 +2046,37 @@
         <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
         <v>151</v>
       </c>
       <c r="AE13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
         <v>34</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2144,7 +2144,7 @@
         <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>2.1</v>
@@ -2266,7 +2266,7 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2769,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -2802,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -2855,7 +2855,7 @@
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2986,10 +2986,10 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2998,22 +2998,22 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
         <v>6.5</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3028,7 +3028,7 @@
         <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>51</v>
@@ -3040,19 +3040,19 @@
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -3087,31 +3087,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M22" t="n">
         <v>3.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
         <v>10</v>
@@ -3144,16 +3144,16 @@
         <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
         <v>201</v>
@@ -3162,16 +3162,16 @@
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
         <v>34</v>
@@ -3209,31 +3209,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
         <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N23" t="n">
         <v>2.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
         <v>1.53</v>
@@ -3245,19 +3245,19 @@
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T23" t="n">
         <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3278,22 +3278,22 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>41</v>
@@ -3331,31 +3331,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3364,22 +3364,22 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
         <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3388,28 +3388,28 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
@@ -3453,31 +3453,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
         <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N25" t="n">
         <v>2.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
         <v>1.53</v>
@@ -3489,19 +3489,19 @@
         <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T25" t="n">
         <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3528,7 +3528,7 @@
         <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3575,31 +3575,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3611,55 +3611,55 @@
         <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T26" t="n">
         <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="n">
         <v>351</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
@@ -3697,31 +3697,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
         <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3730,16 +3730,16 @@
         <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>6.5</v>
@@ -3766,7 +3766,7 @@
         <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE27" t="n">
         <v>11</v>
@@ -3819,31 +3819,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3852,22 +3852,22 @@
         <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
         <v>2.1</v>
       </c>
       <c r="T28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>13</v>
+      </c>
+      <c r="V28" t="n">
         <v>10</v>
       </c>
-      <c r="U28" t="n">
-        <v>15</v>
-      </c>
-      <c r="V28" t="n">
-        <v>11</v>
-      </c>
       <c r="W28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -3891,7 +3891,7 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF28" t="n">
         <v>13</v>
@@ -3900,13 +3900,13 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
@@ -3962,34 +3962,34 @@
         <v>5.5</v>
       </c>
       <c r="N29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.5</v>
       </c>
-      <c r="O29" t="n">
+      <c r="S29" t="n">
         <v>2.5</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
@@ -3998,19 +3998,19 @@
         <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -4025,10 +4025,10 @@
         <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4096,28 +4096,28 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
         <v>34</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
         <v>11</v>
@@ -4141,13 +4141,13 @@
         <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>26</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4260,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4278,7 +4278,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pYBO4g3L</t>
+          <t>dbAArFjl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4288,119 +4288,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T32" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" t="n">
         <v>9</v>
       </c>
-      <c r="U32" t="n">
-        <v>13</v>
-      </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
         <v>13</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AH32" t="n">
         <v>41</v>
       </c>
-      <c r="AD32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>26</v>
-      </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dbAArFjl</t>
+          <t>hQ3JtgL0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4420,22 +4420,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
@@ -4444,16 +4444,16 @@
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N33" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
         <v>1.53</v>
@@ -4462,25 +4462,25 @@
         <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U33" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
         <v>41</v>
@@ -4489,31 +4489,31 @@
         <v>7.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE33" t="n">
         <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -4522,7 +4522,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hQ3JtgL0</t>
+          <t>tnpE2zrK</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4542,109 +4542,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
       </c>
       <c r="Z34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA34" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA34" t="n">
-        <v>6</v>
-      </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tnpE2zrK</t>
+          <t>0j7RvXkD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4664,109 +4664,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P35" t="n">
         <v>1.4</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Q35" t="n">
         <v>2.75</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
+        <v>51</v>
+      </c>
+      <c r="X35" t="n">
         <v>41</v>
-      </c>
-      <c r="X35" t="n">
-        <v>34</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="n">
         <v>8.5</v>
       </c>
-      <c r="AG35" t="n">
-        <v>9</v>
-      </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0j7RvXkD</t>
+          <t>CvCxmJJ6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4786,109 +4786,109 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
+        <v>8</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10</v>
+      </c>
+      <c r="W36" t="n">
+        <v>17</v>
+      </c>
+      <c r="X36" t="n">
         <v>21</v>
       </c>
-      <c r="V36" t="n">
-        <v>13</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>41</v>
       </c>
-      <c r="X36" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>34</v>
-      </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG36" t="n">
         <v>15</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AH36" t="n">
         <v>51</v>
       </c>
-      <c r="AD36" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>15</v>
-      </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CvCxmJJ6</t>
+          <t>tjGYkiko</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4898,101 +4898,101 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
+        <v>9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T37" t="n">
         <v>6.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T37" t="n">
-        <v>5</v>
       </c>
       <c r="U37" t="n">
         <v>7.5</v>
       </c>
       <c r="V37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W37" t="n">
+        <v>12</v>
+      </c>
+      <c r="X37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB37" t="n">
         <v>17</v>
       </c>
-      <c r="X37" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>21</v>
-      </c>
       <c r="AC37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
@@ -5004,13 +5004,13 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tjGYkiko</t>
+          <t>xWrHO3KD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5020,119 +5020,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.53</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M38" t="n">
         <v>3.75</v>
       </c>
-      <c r="I38" t="n">
+      <c r="N38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10</v>
+      </c>
+      <c r="U38" t="n">
+        <v>17</v>
+      </c>
+      <c r="V38" t="n">
+        <v>11</v>
+      </c>
+      <c r="W38" t="n">
+        <v>34</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
         <v>6.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T38" t="n">
-        <v>6</v>
-      </c>
-      <c r="U38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="AB38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE38" t="n">
         <v>8.5</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AF38" t="n">
         <v>11</v>
       </c>
-      <c r="X38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="AG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH38" t="n">
         <v>21</v>
       </c>
-      <c r="AC38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>67</v>
-      </c>
       <c r="AI38" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xWrHO3KD</t>
+          <t>SIfQREV7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5142,113 +5142,109 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Dziugas Telsiai</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
       <c r="H39" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I39" t="n">
         <v>3.4</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2.25</v>
       </c>
-      <c r="J39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="V39" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="W39" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>4.65</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AJ39" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5405,13 +5401,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5430,37 +5426,37 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="U41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X41" t="n">
         <v>20</v>
       </c>
       <c r="Y41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
         <v>11.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC41" t="n">
         <v>40</v>
@@ -5469,19 +5465,19 @@
         <v>250</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG41" t="n">
         <v>9.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ41" t="n">
         <v>23</v>
@@ -5525,49 +5521,49 @@
         <v>4.1</v>
       </c>
       <c r="I42" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M42" t="n">
         <v>5.5</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K42" t="n">
-        <v>15</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4.5</v>
-      </c>
       <c r="N42" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O42" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
@@ -5576,13 +5572,13 @@
         <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>
@@ -5591,7 +5587,7 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="n">
         <v>29</v>
@@ -5603,10 +5599,10 @@
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5641,31 +5637,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M43" t="n">
         <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="P43" t="n">
         <v>1.36</v>
@@ -5674,16 +5670,16 @@
         <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V43" t="n">
         <v>9.5</v>
@@ -5713,7 +5709,7 @@
         <v>151</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF43" t="n">
         <v>15</v>
@@ -5763,10 +5759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I44" t="n">
         <v>10</v>
@@ -5775,37 +5771,37 @@
         <v>1.01</v>
       </c>
       <c r="K44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N44" t="n">
         <v>1.33</v>
       </c>
       <c r="O44" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
@@ -5820,10 +5816,10 @@
         <v>23</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB44" t="n">
         <v>26</v>
@@ -5835,7 +5831,7 @@
         <v>251</v>
       </c>
       <c r="AE44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
@@ -5844,7 +5840,7 @@
         <v>29</v>
       </c>
       <c r="AH44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI44" t="n">
         <v>67</v>
@@ -5885,31 +5881,31 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="J45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
         <v>15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O45" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -5918,58 +5914,58 @@
         <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S45" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T45" t="n">
+        <v>15</v>
+      </c>
+      <c r="U45" t="n">
+        <v>21</v>
+      </c>
+      <c r="V45" t="n">
         <v>13</v>
       </c>
-      <c r="U45" t="n">
-        <v>19</v>
-      </c>
-      <c r="V45" t="n">
-        <v>12</v>
-      </c>
       <c r="W45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X45" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
         <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="n">
         <v>126</v>
       </c>
       <c r="AE45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF45" t="n">
         <v>10</v>
       </c>
-      <c r="AF45" t="n">
-        <v>12</v>
-      </c>
       <c r="AG45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ45" t="n">
         <v>21</v>
@@ -6016,22 +6012,22 @@
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K46" t="n">
         <v>19</v>
       </c>
       <c r="L46" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M46" t="n">
         <v>5.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P46" t="n">
         <v>1.25</v>
@@ -6040,7 +6036,7 @@
         <v>3.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S46" t="n">
         <v>2.25</v>
@@ -6129,7 +6125,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
@@ -6183,7 +6179,7 @@
         <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="n">
         <v>7.5</v>
@@ -6207,7 +6203,7 @@
         <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH47" t="n">
         <v>67</v>
@@ -6251,13 +6247,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6278,22 +6274,22 @@
         <v>1.85</v>
       </c>
       <c r="P48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
@@ -6305,10 +6301,10 @@
         <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
@@ -6320,16 +6316,16 @@
         <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
         <v>51</v>
@@ -6739,13 +6735,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6760,10 +6756,10 @@
         <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O52" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P52" t="n">
         <v>1.3</v>
@@ -6778,16 +6774,16 @@
         <v>2.25</v>
       </c>
       <c r="T52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U52" t="n">
         <v>10</v>
-      </c>
-      <c r="U52" t="n">
-        <v>11</v>
       </c>
       <c r="V52" t="n">
         <v>8.5</v>
       </c>
       <c r="W52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X52" t="n">
         <v>13</v>
@@ -6811,13 +6807,13 @@
         <v>126</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
         <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
         <v>41</v>
@@ -6986,10 +6982,10 @@
         <v>1.2</v>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
         <v>1.01</v>
@@ -6998,10 +6994,10 @@
         <v>23</v>
       </c>
       <c r="L54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N54" t="n">
         <v>1.36</v>
@@ -7028,7 +7024,7 @@
         <v>8</v>
       </c>
       <c r="V54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W54" t="n">
         <v>8.5</v>
@@ -7061,7 +7057,7 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH54" t="n">
         <v>126</v>
@@ -7105,13 +7101,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H55" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I55" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J55" t="n">
         <v>1.04</v>
@@ -7120,16 +7116,16 @@
         <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="O55" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7150,13 +7146,13 @@
         <v>41</v>
       </c>
       <c r="V55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W55" t="n">
         <v>101</v>
       </c>
       <c r="X55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y55" t="n">
         <v>51</v>
@@ -7165,7 +7161,7 @@
         <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -7177,7 +7173,7 @@
         <v>501</v>
       </c>
       <c r="AE55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF55" t="n">
         <v>6</v>
@@ -7370,10 +7366,10 @@
         <v>2.75</v>
       </c>
       <c r="N57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P57" t="n">
         <v>1.5</v>
@@ -7593,13 +7589,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
         <v>1.1</v>
@@ -7608,16 +7604,16 @@
         <v>7</v>
       </c>
       <c r="L59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.48</v>
       </c>
       <c r="P59" t="n">
         <v>1.57</v>
@@ -7632,7 +7628,7 @@
         <v>1.67</v>
       </c>
       <c r="T59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
         <v>10</v>
@@ -7671,7 +7667,7 @@
         <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="n">
         <v>34</v>
@@ -7686,7 +7682,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2yNcBlQE</t>
+          <t>YLCnAWVG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7696,119 +7692,119 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.38</v>
+        <v>3.85</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M60" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T60" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="U60" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB60" t="n">
         <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD60" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8IweiTYr</t>
+          <t>fy1e8A0T</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7818,119 +7814,119 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="H61" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K61" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N61" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="O61" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="P61" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S61" t="n">
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="U61" t="n">
+        <v>17</v>
+      </c>
+      <c r="V61" t="n">
+        <v>11</v>
+      </c>
+      <c r="W61" t="n">
+        <v>45</v>
+      </c>
+      <c r="X61" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG61" t="n">
         <v>8.5</v>
       </c>
-      <c r="V61" t="n">
-        <v>8</v>
-      </c>
-      <c r="W61" t="n">
-        <v>11</v>
-      </c>
-      <c r="X61" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>19</v>
-      </c>
       <c r="AH61" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Op2OdkBL</t>
+          <t>QJiR2lOj</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7940,119 +7936,119 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.38</v>
+        <v>4.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N62" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="O62" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="P62" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
-        <v>17</v>
+        <v>6.7</v>
       </c>
       <c r="U62" t="n">
-        <v>41</v>
+        <v>8.25</v>
       </c>
       <c r="V62" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="W62" t="n">
-        <v>81</v>
+        <v>14.5</v>
       </c>
       <c r="X62" t="n">
-        <v>51</v>
+        <v>14.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA62" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="AB62" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC62" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AE62" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AF62" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AH62" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="AI62" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>dxuWhtAm</t>
+          <t>tSZDQiGc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8062,59 +8058,59 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="I63" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L63" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="M63" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="O63" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P63" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -8123,58 +8119,58 @@
         <v>8</v>
       </c>
       <c r="U63" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V63" t="n">
+        <v>8</v>
+      </c>
+      <c r="W63" t="n">
         <v>11</v>
       </c>
-      <c r="V63" t="n">
-        <v>9</v>
-      </c>
-      <c r="W63" t="n">
-        <v>21</v>
-      </c>
       <c r="X63" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC63" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AD63" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AG63" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AJ63" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f1vtUNSa</t>
+          <t>YJBrS4i2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8184,119 +8180,119 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="J64" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
+        <v>8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>15</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>30</v>
+      </c>
+      <c r="X64" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA64" t="n">
         <v>6.6</v>
       </c>
-      <c r="L64" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T64" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="AB64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF64" t="n">
         <v>14</v>
       </c>
-      <c r="V64" t="n">
-        <v>11</v>
-      </c>
-      <c r="W64" t="n">
-        <v>35</v>
-      </c>
-      <c r="X64" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>10</v>
-      </c>
       <c r="AG64" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI64" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SQdGWGVQ</t>
+          <t>2yNcBlQE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8306,227 +8302,1321 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
       <c r="L65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P65" t="n">
         <v>1.44</v>
       </c>
-      <c r="M65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q65" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U65" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="V65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W65" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Y65" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC65" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>900</v>
+        <v>251</v>
       </c>
       <c r="AE65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>8IweiTYr</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K66" t="n">
+        <v>17</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T66" t="n">
+        <v>9</v>
+      </c>
+      <c r="U66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>11</v>
+      </c>
+      <c r="X66" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Op2OdkBL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>17</v>
+      </c>
+      <c r="U67" t="n">
+        <v>34</v>
+      </c>
+      <c r="V67" t="n">
+        <v>19</v>
+      </c>
+      <c r="W67" t="n">
+        <v>81</v>
+      </c>
+      <c r="X67" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dxuWhtAm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>11</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="n">
+        <v>8</v>
+      </c>
+      <c r="U68" t="n">
+        <v>11</v>
+      </c>
+      <c r="V68" t="n">
+        <v>9</v>
+      </c>
+      <c r="W68" t="n">
+        <v>21</v>
+      </c>
+      <c r="X68" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lQ2otb96</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T69" t="n">
+        <v>9</v>
+      </c>
+      <c r="U69" t="n">
+        <v>21</v>
+      </c>
+      <c r="V69" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>75</v>
+      </c>
+      <c r="X69" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>jFh6k2nK</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>35</v>
+      </c>
+      <c r="X70" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>f1vtUNSa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FC Tulsa</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U71" t="n">
+        <v>14</v>
+      </c>
+      <c r="V71" t="n">
+        <v>11</v>
+      </c>
+      <c r="W71" t="n">
+        <v>35</v>
+      </c>
+      <c r="X71" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SQdGWGVQ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T72" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>40</v>
+      </c>
+      <c r="X72" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>nBwmRfgl</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Carabobo</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="G73" t="n">
         <v>1.5</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H73" t="n">
         <v>3.55</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I73" t="n">
         <v>7.2</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
         <v>1.4</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M73" t="n">
         <v>2.52</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N73" t="n">
         <v>2.15</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O73" t="n">
         <v>1.55</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P73" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q73" t="n">
         <v>2.25</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R73" t="n">
         <v>2.25</v>
       </c>
-      <c r="S66" t="n">
+      <c r="S73" t="n">
         <v>1.5</v>
       </c>
-      <c r="T66" t="n">
+      <c r="T73" t="n">
         <v>4.9</v>
       </c>
-      <c r="U66" t="n">
+      <c r="U73" t="n">
         <v>5.8</v>
       </c>
-      <c r="V66" t="n">
+      <c r="V73" t="n">
         <v>8.75</v>
       </c>
-      <c r="W66" t="n">
+      <c r="W73" t="n">
         <v>9.75</v>
       </c>
-      <c r="X66" t="n">
+      <c r="X73" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Y73" t="n">
         <v>40</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="Z73" t="n">
         <v>7.1</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AA73" t="n">
         <v>7.4</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AB73" t="n">
         <v>25</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AC73" t="n">
         <v>175</v>
       </c>
-      <c r="AD66" t="n">
+      <c r="AD73" t="n">
         <v>101</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AE73" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AF73" t="n">
         <v>45</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AG73" t="n">
         <v>25</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AH73" t="n">
         <v>200</v>
       </c>
-      <c r="AI66" t="n">
+      <c r="AI73" t="n">
         <v>120</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AJ73" t="n">
         <v>120</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>xfJENcEs</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>12</v>
+      </c>
+      <c r="V74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>22</v>
+      </c>
+      <c r="X74" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WhCNLyqf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Flint</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T75" t="n">
+        <v>17</v>
+      </c>
+      <c r="U75" t="n">
+        <v>32</v>
+      </c>
+      <c r="V75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>90</v>
+      </c>
+      <c r="X75" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ75"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,7 +4278,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dbAArFjl</t>
+          <t>pYBO4g3L</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4288,119 +4288,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="S32" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" t="n">
         <v>41</v>
       </c>
-      <c r="Z32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>67</v>
-      </c>
       <c r="AD32" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hQ3JtgL0</t>
+          <t>dbAArFjl</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4420,22 +4420,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
@@ -4444,76 +4444,76 @@
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.25</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W33" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
         <v>41</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -4522,7 +4522,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tnpE2zrK</t>
+          <t>hQ3JtgL0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4542,22 +4542,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4572,16 +4572,16 @@
         <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
@@ -4590,19 +4590,19 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X34" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
@@ -4611,40 +4611,40 @@
         <v>7.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0j7RvXkD</t>
+          <t>tnpE2zrK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4664,109 +4664,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD35" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AE35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG35" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CvCxmJJ6</t>
+          <t>0j7RvXkD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4786,109 +4786,109 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="J36" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI36" t="n">
         <v>15</v>
       </c>
-      <c r="AH36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tjGYkiko</t>
+          <t>CvCxmJJ6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4898,104 +4898,104 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="N37" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V37" t="n">
+        <v>10</v>
+      </c>
+      <c r="W37" t="n">
+        <v>17</v>
+      </c>
+      <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE37" t="n">
         <v>8.5</v>
       </c>
-      <c r="W37" t="n">
-        <v>12</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="AF37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG37" t="n">
         <v>15</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>17</v>
       </c>
       <c r="AH37" t="n">
         <v>51</v>
@@ -5004,13 +5004,13 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>xWrHO3KD</t>
+          <t>tjGYkiko</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5020,119 +5020,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M38" t="n">
         <v>3.4</v>
       </c>
-      <c r="I38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N38" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="U38" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="V38" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE38" t="n">
         <v>13</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AF38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="n">
         <v>41</v>
       </c>
-      <c r="AD38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SIfQREV7</t>
+          <t>xWrHO3KD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5142,109 +5142,113 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LITHUANIA - A LYGA</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Suduva</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dziugas Telsiai</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.67</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11</v>
+      </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="P39" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="T39" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="U39" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="X39" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>26</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -7682,7 +7686,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>YLCnAWVG</t>
+          <t>2yNcBlQE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7692,119 +7696,119 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J60" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M60" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O60" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T60" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="U60" t="n">
+        <v>12</v>
+      </c>
+      <c r="V60" t="n">
+        <v>10</v>
+      </c>
+      <c r="W60" t="n">
+        <v>23</v>
+      </c>
+      <c r="X60" t="n">
         <v>21</v>
       </c>
-      <c r="V60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W60" t="n">
-        <v>60</v>
-      </c>
-      <c r="X60" t="n">
-        <v>37</v>
-      </c>
       <c r="Y60" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
         <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fy1e8A0T</t>
+          <t>8IweiTYr</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7814,119 +7818,119 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I61" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="L61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P61" t="n">
         <v>1.29</v>
       </c>
-      <c r="M61" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q61" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8</v>
+      </c>
+      <c r="W61" t="n">
+        <v>11</v>
+      </c>
+      <c r="X61" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z61" t="n">
         <v>17</v>
       </c>
-      <c r="V61" t="n">
-        <v>11</v>
-      </c>
-      <c r="W61" t="n">
-        <v>45</v>
-      </c>
-      <c r="X61" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AA61" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="AB61" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC61" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE61" t="n">
-        <v>8.25</v>
+        <v>21</v>
       </c>
       <c r="AF61" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="AI61" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>QJiR2lOj</t>
+          <t>Op2OdkBL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7936,119 +7940,119 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S62" t="n">
         <v>1.8</v>
       </c>
-      <c r="H62" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K62" t="n">
+      <c r="T62" t="n">
+        <v>17</v>
+      </c>
+      <c r="U62" t="n">
+        <v>34</v>
+      </c>
+      <c r="V62" t="n">
+        <v>19</v>
+      </c>
+      <c r="W62" t="n">
+        <v>81</v>
+      </c>
+      <c r="X62" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF62" t="n">
         <v>7</v>
       </c>
-      <c r="L62" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M62" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T62" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U62" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="V62" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>23</v>
-      </c>
       <c r="AG62" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>70</v>
+        <v>9.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AJ62" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tSZDQiGc</t>
+          <t>dxuWhtAm</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8058,59 +8062,59 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="J63" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N63" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="O63" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="P63" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -8119,58 +8123,58 @@
         <v>8</v>
       </c>
       <c r="U63" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="V63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W63" t="n">
+        <v>21</v>
+      </c>
+      <c r="X63" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE63" t="n">
         <v>11</v>
       </c>
-      <c r="X63" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF63" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AG63" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AI63" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>YJBrS4i2</t>
+          <t>f1vtUNSa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8180,119 +8184,119 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>FC Tulsa</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="J64" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="M64" t="n">
-        <v>3.7</v>
+        <v>2.82</v>
       </c>
       <c r="N64" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="O64" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="P64" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="S64" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="U64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V64" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W64" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y64" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB64" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AC64" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AD64" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="AE64" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF64" t="n">
         <v>10</v>
       </c>
-      <c r="AF64" t="n">
-        <v>14</v>
-      </c>
       <c r="AG64" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH64" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2yNcBlQE</t>
+          <t>SQdGWGVQ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8302,119 +8306,115 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I65" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>40</v>
+      </c>
+      <c r="X65" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF65" t="n">
         <v>10</v>
       </c>
-      <c r="L65" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T65" t="n">
-        <v>8</v>
-      </c>
-      <c r="U65" t="n">
-        <v>12</v>
-      </c>
-      <c r="V65" t="n">
-        <v>10</v>
-      </c>
-      <c r="W65" t="n">
+      <c r="AG65" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH65" t="n">
         <v>23</v>
-      </c>
-      <c r="X65" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>29</v>
       </c>
       <c r="AI65" t="n">
         <v>23</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8IweiTYr</t>
+          <t>nBwmRfgl</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8424,1199 +8424,109 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K66" t="n">
-        <v>17</v>
-      </c>
+        <v>7.2</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="N66" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="O66" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="P66" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="T66" t="n">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="U66" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="V66" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="W66" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="n">
-        <v>17</v>
+        <v>7.1</v>
       </c>
       <c r="AA66" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AB66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC66" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AD66" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE66" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AH66" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AI66" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AJ66" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Op2OdkBL</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Bodrumspor</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>6</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K67" t="n">
-        <v>15</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M67" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O67" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T67" t="n">
-        <v>17</v>
-      </c>
-      <c r="U67" t="n">
-        <v>34</v>
-      </c>
-      <c r="V67" t="n">
-        <v>19</v>
-      </c>
-      <c r="W67" t="n">
-        <v>81</v>
-      </c>
-      <c r="X67" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>dxuWhtAm</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Konyaspor</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S68" t="n">
-        <v>2</v>
-      </c>
-      <c r="T68" t="n">
-        <v>8</v>
-      </c>
-      <c r="U68" t="n">
-        <v>11</v>
-      </c>
-      <c r="V68" t="n">
-        <v>9</v>
-      </c>
-      <c r="W68" t="n">
-        <v>21</v>
-      </c>
-      <c r="X68" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>lQ2otb96</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Inhulets</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Veres-Rivne</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T69" t="n">
-        <v>9</v>
-      </c>
-      <c r="U69" t="n">
-        <v>21</v>
-      </c>
-      <c r="V69" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W69" t="n">
-        <v>75</v>
-      </c>
-      <c r="X69" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>jFh6k2nK</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>LNZ Cherkasy</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Polissya Zhytomyr</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K70" t="n">
-        <v>6</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T70" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W70" t="n">
-        <v>35</v>
-      </c>
-      <c r="X70" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC70" t="n">
         <v>120</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>f1vtUNSa</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>FC Tulsa</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H71" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K71" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M71" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P71" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T71" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U71" t="n">
-        <v>14</v>
-      </c>
-      <c r="V71" t="n">
-        <v>11</v>
-      </c>
-      <c r="W71" t="n">
-        <v>35</v>
-      </c>
-      <c r="X71" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SQdGWGVQ</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T72" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="U72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="V72" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W72" t="n">
-        <v>40</v>
-      </c>
-      <c r="X72" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>nBwmRfgl</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Rayo Zuliano</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T73" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="U73" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="V73" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W73" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X73" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>xfJENcEs</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>8</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M74" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S74" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U74" t="n">
-        <v>12</v>
-      </c>
-      <c r="V74" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W74" t="n">
-        <v>22</v>
-      </c>
-      <c r="X74" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WhCNLyqf</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Flint</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>5</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K75" t="n">
-        <v>9</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M75" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S75" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T75" t="n">
-        <v>17</v>
-      </c>
-      <c r="U75" t="n">
-        <v>32</v>
-      </c>
-      <c r="V75" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="W75" t="n">
-        <v>90</v>
-      </c>
-      <c r="X75" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ66"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1034,28 +1034,28 @@
         <v>2.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
         <v>13</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1088,16 +1088,16 @@
         <v>5.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.88</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1150,28 +1150,28 @@
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.67</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>2.1</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1186,13 +1186,13 @@
         <v>29</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>101</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1272,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N7" t="n">
         <v>3.1</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
@@ -1394,31 +1394,31 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.62</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Q8" t="n">
         <v>2.2</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
         <v>7.5</v>
@@ -1436,7 +1436,7 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
@@ -1451,7 +1451,7 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1501,25 +1501,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
         <v>3.1</v>
@@ -1543,16 +1543,16 @@
         <v>4.75</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -2004,10 +2004,10 @@
         <v>29</v>
       </c>
       <c r="L13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" t="n">
         <v>1.22</v>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
         <v>11</v>
@@ -2052,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
@@ -2233,46 +2233,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2281,16 +2281,16 @@
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
@@ -2302,10 +2302,10 @@
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
@@ -2769,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -2802,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2986,10 +2986,10 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2998,22 +2998,22 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>7</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3025,10 +3025,10 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
@@ -3037,19 +3037,19 @@
         <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
@@ -4278,7 +4278,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pYBO4g3L</t>
+          <t>dbAArFjl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4288,119 +4288,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="N32" t="n">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T32" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" t="n">
         <v>9</v>
       </c>
-      <c r="U32" t="n">
-        <v>13</v>
-      </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
         <v>13</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AH32" t="n">
         <v>41</v>
       </c>
-      <c r="AD32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>26</v>
-      </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dbAArFjl</t>
+          <t>hQ3JtgL0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4420,100 +4420,100 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.53</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V33" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
         <v>41</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -4522,7 +4522,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hQ3JtgL0</t>
+          <t>tnpE2zrK</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4542,46 +4542,46 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
@@ -4590,19 +4590,19 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
@@ -4611,40 +4611,40 @@
         <v>7.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tnpE2zrK</t>
+          <t>0j7RvXkD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4664,109 +4664,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.4</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
+        <v>51</v>
+      </c>
+      <c r="X35" t="n">
         <v>41</v>
-      </c>
-      <c r="X35" t="n">
-        <v>34</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE35" t="n">
         <v>6.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0j7RvXkD</t>
+          <t>CvCxmJJ6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4786,109 +4786,109 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.33</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="K36" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="N36" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="V36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="X36" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>51</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CvCxmJJ6</t>
+          <t>tjGYkiko</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4898,107 +4898,107 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.95</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S37" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="T37" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V37" t="n">
         <v>8.5</v>
       </c>
-      <c r="V37" t="n">
-        <v>10</v>
-      </c>
       <c r="W37" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="n">
         <v>41</v>
@@ -5010,7 +5010,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tjGYkiko</t>
+          <t>xWrHO3KD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5020,119 +5020,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S38" t="n">
         <v>2.05</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T38" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="U38" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="V38" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W38" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
       </c>
       <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG38" t="n">
         <v>9</v>
       </c>
-      <c r="AA38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
         <v>17</v>
       </c>
-      <c r="AC38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF38" t="n">
+      <c r="AJ38" t="n">
         <v>26</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xWrHO3KD</t>
+          <t>SIfQREV7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5142,113 +5142,109 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Dziugas Telsiai</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
       <c r="H39" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I39" t="n">
         <v>3.4</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2.25</v>
       </c>
-      <c r="J39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="V39" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="W39" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>4.65</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AJ39" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5283,19 +5279,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I40" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
         <v>1.22</v>
@@ -5304,10 +5300,10 @@
         <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P40" t="n">
         <v>1.33</v>
@@ -5316,10 +5312,10 @@
         <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S40" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T40" t="n">
         <v>7.5</v>
@@ -5343,7 +5339,7 @@
         <v>13</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
         <v>17</v>
@@ -5355,7 +5351,7 @@
         <v>251</v>
       </c>
       <c r="AE40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>29</v>
@@ -5364,7 +5360,7 @@
         <v>17</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI40" t="n">
         <v>41</v>
@@ -5408,7 +5404,7 @@
         <v>2.57</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
         <v>2.52</v>
@@ -5416,27 +5412,27 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T41" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
         <v>14.5</v>
@@ -5454,37 +5450,37 @@
         <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE41" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
         <v>9.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -6495,19 +6491,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>1.29</v>
@@ -6522,7 +6518,7 @@
         <v>1.88</v>
       </c>
       <c r="P50" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q50" t="n">
         <v>2.75</v>
@@ -6537,7 +6533,7 @@
         <v>5.5</v>
       </c>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
@@ -6558,10 +6554,10 @@
         <v>10</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -6576,7 +6572,7 @@
         <v>34</v>
       </c>
       <c r="AH50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI50" t="n">
         <v>101</v>
@@ -7686,7 +7682,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2yNcBlQE</t>
+          <t>YLCnAWVG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7696,119 +7692,119 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.38</v>
+        <v>3.85</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M60" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T60" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="U60" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB60" t="n">
         <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD60" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8IweiTYr</t>
+          <t>fy1e8A0T</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7818,119 +7814,119 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="H61" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K61" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N61" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="O61" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="P61" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S61" t="n">
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="U61" t="n">
+        <v>17</v>
+      </c>
+      <c r="V61" t="n">
+        <v>11</v>
+      </c>
+      <c r="W61" t="n">
+        <v>45</v>
+      </c>
+      <c r="X61" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG61" t="n">
         <v>8.5</v>
       </c>
-      <c r="V61" t="n">
-        <v>8</v>
-      </c>
-      <c r="W61" t="n">
-        <v>11</v>
-      </c>
-      <c r="X61" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>19</v>
-      </c>
       <c r="AH61" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Op2OdkBL</t>
+          <t>QJiR2lOj</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7940,119 +7936,119 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.4</v>
+        <v>4.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="M62" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="N62" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="O62" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="P62" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="R62" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S62" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
-        <v>17</v>
+        <v>6.7</v>
       </c>
       <c r="U62" t="n">
-        <v>34</v>
+        <v>8.25</v>
       </c>
       <c r="V62" t="n">
-        <v>19</v>
+        <v>8.25</v>
       </c>
       <c r="W62" t="n">
-        <v>81</v>
+        <v>14.5</v>
       </c>
       <c r="X62" t="n">
-        <v>51</v>
+        <v>14.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="Z62" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA62" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="AB62" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC62" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="n">
-        <v>301</v>
+        <v>700</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF62" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AH62" t="n">
-        <v>9.5</v>
+        <v>70</v>
       </c>
       <c r="AI62" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>dxuWhtAm</t>
+          <t>tSZDQiGc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8062,59 +8058,59 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="I63" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L63" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="O63" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="P63" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -8123,58 +8119,58 @@
         <v>8</v>
       </c>
       <c r="U63" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V63" t="n">
+        <v>8</v>
+      </c>
+      <c r="W63" t="n">
         <v>11</v>
       </c>
-      <c r="V63" t="n">
-        <v>9</v>
-      </c>
-      <c r="W63" t="n">
-        <v>21</v>
-      </c>
       <c r="X63" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC63" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AD63" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AG63" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AJ63" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f1vtUNSa</t>
+          <t>YJBrS4i2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8184,119 +8180,119 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="J64" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
+        <v>8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>15</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>30</v>
+      </c>
+      <c r="X64" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA64" t="n">
         <v>6.6</v>
       </c>
-      <c r="L64" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T64" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="AB64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF64" t="n">
         <v>14</v>
       </c>
-      <c r="V64" t="n">
-        <v>11</v>
-      </c>
-      <c r="W64" t="n">
-        <v>35</v>
-      </c>
-      <c r="X64" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>10</v>
-      </c>
       <c r="AG64" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI64" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SQdGWGVQ</t>
+          <t>2yNcBlQE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8306,227 +8302,1321 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
       <c r="L65" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M65" t="n">
-        <v>2.47</v>
+        <v>3.25</v>
       </c>
       <c r="N65" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="O65" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
         <v>8</v>
       </c>
       <c r="U65" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W65" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Y65" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC65" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AE65" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>8IweiTYr</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K66" t="n">
+        <v>17</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T66" t="n">
+        <v>9</v>
+      </c>
+      <c r="U66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>11</v>
+      </c>
+      <c r="X66" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Op2OdkBL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>17</v>
+      </c>
+      <c r="U67" t="n">
+        <v>34</v>
+      </c>
+      <c r="V67" t="n">
+        <v>19</v>
+      </c>
+      <c r="W67" t="n">
+        <v>81</v>
+      </c>
+      <c r="X67" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dxuWhtAm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>11</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="n">
+        <v>8</v>
+      </c>
+      <c r="U68" t="n">
+        <v>11</v>
+      </c>
+      <c r="V68" t="n">
+        <v>9</v>
+      </c>
+      <c r="W68" t="n">
+        <v>21</v>
+      </c>
+      <c r="X68" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lQ2otb96</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T69" t="n">
+        <v>9</v>
+      </c>
+      <c r="U69" t="n">
+        <v>21</v>
+      </c>
+      <c r="V69" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>75</v>
+      </c>
+      <c r="X69" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>jFh6k2nK</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>35</v>
+      </c>
+      <c r="X70" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>f1vtUNSa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FC Tulsa</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U71" t="n">
+        <v>13</v>
+      </c>
+      <c r="V71" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W71" t="n">
+        <v>30</v>
+      </c>
+      <c r="X71" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SQdGWGVQ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>8</v>
+      </c>
+      <c r="U72" t="n">
+        <v>16</v>
+      </c>
+      <c r="V72" t="n">
+        <v>12</v>
+      </c>
+      <c r="W72" t="n">
+        <v>45</v>
+      </c>
+      <c r="X72" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>nBwmRfgl</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Carabobo</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="G73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P73" t="n">
         <v>1.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="Q73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V73" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W73" t="n">
+        <v>10</v>
+      </c>
+      <c r="X73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>xfJENcEs</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R74" t="n">
         <v>1.55</v>
       </c>
-      <c r="P66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T66" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="U66" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="V66" t="n">
+      <c r="S74" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>12</v>
+      </c>
+      <c r="V74" t="n">
         <v>8.5</v>
       </c>
-      <c r="W66" t="n">
-        <v>10</v>
-      </c>
-      <c r="X66" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y66" t="n">
+      <c r="W74" t="n">
+        <v>22</v>
+      </c>
+      <c r="X74" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC74" t="n">
         <v>40</v>
       </c>
-      <c r="Z66" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB66" t="n">
+      <c r="AD74" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="n">
         <v>25</v>
       </c>
-      <c r="AC66" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF66" t="n">
+      <c r="AJ74" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WhCNLyqf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Flint</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T75" t="n">
+        <v>17</v>
+      </c>
+      <c r="U75" t="n">
+        <v>32</v>
+      </c>
+      <c r="V75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>90</v>
+      </c>
+      <c r="X75" t="n">
         <v>45</v>
       </c>
-      <c r="AG66" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>120</v>
+      <c r="Y75" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-28.xlsx
@@ -1278,10 +1278,10 @@
         <v>2.2</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.67</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1412,22 +1412,22 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1463,7 +1463,7 @@
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2736,40 +2736,40 @@
         <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -2778,7 +2778,7 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2790,22 +2790,22 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE19" t="n">
         <v>7</v>
       </c>
       <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12</v>
       </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>4.33</v>
@@ -5312,10 +5312,10 @@
         <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S40" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T40" t="n">
         <v>7.5</v>
@@ -5401,13 +5401,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5415,7 +5415,7 @@
         <v>1.23</v>
       </c>
       <c r="M41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N41" t="n">
         <v>1.7</v>
@@ -5432,25 +5432,25 @@
         <v>2.15</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X41" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
@@ -5465,22 +5465,22 @@
         <v>300</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -6500,10 +6500,10 @@
         <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
         <v>1.29</v>
